--- a/xlsx/大主教_intext.xlsx
+++ b/xlsx/大主教_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="731">
   <si>
     <t>大主教</t>
   </si>
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%AC%E6%9C%83</t>
   </si>
   <si>
-    <t>聖公會</t>
+    <t>圣公会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%8D%80</t>
   </si>
   <si>
-    <t>教區</t>
+    <t>教区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E7%9C%81</t>
@@ -59,37 +59,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E6%95%99%E5%8D%80</t>
   </si>
   <si>
-    <t>總教區</t>
+    <t>总教区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E6%AC%8A%E4%B8%BB%E6%95%99</t>
   </si>
   <si>
-    <t>正權主教</t>
+    <t>正权主教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%95%99%E5%9C%98</t>
   </si>
   <si>
-    <t>主教團</t>
+    <t>主教团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%A7%A9%E8%81%96%E4%BA%8B</t>
   </si>
   <si>
-    <t>聖秩聖事</t>
+    <t>圣秩圣事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>羅馬帝國</t>
+    <t>罗马帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B%E8%A1%8C%E7%9C%81</t>
   </si>
   <si>
-    <t>羅馬帝國行省</t>
+    <t>罗马帝国行省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E4%B8%BB%E6%95%99</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1</t>
   </si>
   <si>
-    <t>盧森堡</t>
+    <t>卢森堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99%E8%89%BE%E5%85%8B%E6%96%AF%E6%80%BB%E6%95%99%E5%8C%BA</t>
@@ -137,13 +137,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%95%99%E5%BB%B7</t>
   </si>
   <si>
-    <t>羅馬教廷</t>
+    <t>罗马教廷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E9%8A%9C%E4%B8%BB%E6%95%99</t>
   </si>
   <si>
-    <t>領銜主教</t>
+    <t>领衔主教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%BB%B7</t>
@@ -155,13 +155,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%A4%A7%E8%BC%9D</t>
   </si>
   <si>
-    <t>韓大輝</t>
+    <t>韩大辉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E6%B0%91%E7%A6%8F%E9%9F%B3%E9%83%A8</t>
   </si>
   <si>
-    <t>萬民福音部</t>
+    <t>万民福音部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A9%E7%90%86%E4%B8%BB%E6%95%99</t>
@@ -179,19 +179,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%9B%84%E6%95%99%E5%8D%80</t>
   </si>
   <si>
-    <t>高雄教區</t>
+    <t>高雄教区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%89%E6%8C%AF%E5%BF%A0</t>
   </si>
   <si>
-    <t>劉振忠</t>
+    <t>刘振忠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E6%9C%83%E7%B4%8B%E7%AB%A0%E5%AD%B8</t>
   </si>
   <si>
-    <t>教會紋章學</t>
+    <t>教会纹章学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%AB%E5%B8%A6</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C%E5%8F%97%E9%9B%A3</t>
   </si>
   <si>
-    <t>耶穌受難</t>
+    <t>耶稣受难</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A8%A3%E5%A4%8D%E6%B4%BB</t>
@@ -257,19 +257,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C%E5%8D%87%E5%A4%A9</t>
   </si>
   <si>
-    <t>耶穌升天</t>
+    <t>耶稣升天</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>基督教會</t>
+    <t>基督教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E7%B6%93</t>
   </si>
   <si>
-    <t>信經</t>
+    <t>信经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E7%A6%8F%E9%9F%B3%E4%B9%A6</t>
@@ -281,13 +281,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%B4%84%E8%81%96%E7%B6%93</t>
   </si>
   <si>
-    <t>新約聖經</t>
+    <t>新约圣经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B6%93</t>
   </si>
   <si>
-    <t>聖經</t>
+    <t>圣经</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Books_of_the_Bible</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>基督教神學</t>
+    <t>基督教神学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E7%9A%84%E7%A5%9E</t>
@@ -329,31 +329,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%88%B6</t>
   </si>
   <si>
-    <t>聖父</t>
+    <t>圣父</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%AD%90</t>
   </si>
   <si>
-    <t>聖子</t>
+    <t>圣子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%9D%88</t>
   </si>
   <si>
-    <t>聖靈</t>
+    <t>圣灵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E8%BE%A8%E6%83%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>基督教辨惑學</t>
+    <t>基督教辨惑学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%97%E7%A6%AE</t>
   </si>
   <si>
-    <t>洗禮</t>
+    <t>洗礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E8%AE%BA</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B4%96%E7%BD%AA</t>
   </si>
   <si>
-    <t>贖罪</t>
+    <t>赎罪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E5%8E%86%E5%8F%B2</t>
@@ -401,13 +401,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%88%A9%E4%BA%9E_(%E8%80%B6%E7%A9%8C%E7%9A%84%E6%AF%8D%E8%A6%AA)</t>
   </si>
   <si>
-    <t>馬利亞 (耶穌的母親)</t>
+    <t>马利亚 (耶稣的母亲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8B%A5%E7%91%9F</t>
   </si>
   <si>
-    <t>聖若瑟</t>
+    <t>圣若瑟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%BF%E5%BE%92_(%E5%9F%BA%E7%9D%A3%E6%95%99)</t>
@@ -431,25 +431,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E7%88%B6_(%E5%9F%BA%E7%9D%A3%E6%95%99%E6%AD%B7%E5%8F%B2)</t>
   </si>
   <si>
-    <t>教父 (基督教歷史)</t>
+    <t>教父 (基督教历史)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%BF%E5%BE%92%E7%B5%B1%E7%B7%92</t>
   </si>
   <si>
-    <t>使徒統緒</t>
+    <t>使徒统绪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E6%9C%83%E5%9B%9B%E7%89%B9%E5%BE%B5</t>
   </si>
   <si>
-    <t>教會四特徵</t>
+    <t>教会四特征</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%A4%A7%E7%89%A7%E9%A6%96%E5%8D%80</t>
   </si>
   <si>
-    <t>五大牧首區</t>
+    <t>五大牧首区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A9%E6%9C%9F%E5%9F%BA%E7%9D%A3%E6%95%99</t>
@@ -473,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%85%AC%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>大公會議</t>
+    <t>大公会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E6%B3%A2%E7%9A%84%E5%A5%A5%E5%8F%A4%E6%96%AF%E4%B8%81</t>
@@ -485,13 +485,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E8%A5%BF%E6%95%99%E6%9C%83%E5%A4%A7%E5%88%86%E8%A3%82</t>
   </si>
   <si>
-    <t>東西教會大分裂</t>
+    <t>东西教会大分裂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E5%AD%97%E8%BB%8D%E6%9D%B1%E5%BE%81</t>
   </si>
   <si>
-    <t>十字軍東征</t>
+    <t>十字军东征</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E9%98%BF%E5%A5%8E%E9%82%A3</t>
@@ -515,19 +515,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9D%E7%B4%8D%E7%88%B5%C2%B7%E7%BE%85%E8%80%80%E6%8B%89</t>
   </si>
   <si>
-    <t>依納爵·羅耀拉</t>
+    <t>依纳爵·罗耀拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%B8%81%C2%B7%E8%B7%AF%E5%BE%B7</t>
   </si>
   <si>
-    <t>馬丁·路德</t>
+    <t>马丁·路德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%93%C2%B7%E5%96%80%E7%88%BE%E6%96%87</t>
   </si>
   <si>
-    <t>讓·喀爾文</t>
+    <t>让·喀尔文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E6%AD%A3%E6%95%99%E4%BC%9A%E7%9A%84%E6%95%99%E6%B4%BE%E5%88%86%E8%A3%82</t>
@@ -539,19 +539,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A6%BA%E9%86%92%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>大覺醒運動</t>
+    <t>大觉醒运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E4%B8%96%E6%95%99%E6%9C%83%E5%90%88%E4%B8%80%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>普世教會合一運動</t>
+    <t>普世教会合一运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E7%99%BC%E8%AA%B2%E7%A8%8B</t>
   </si>
   <si>
-    <t>啟發課程</t>
+    <t>启发课程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E6%B4%BE%E7%B3%BB</t>
@@ -569,13 +569,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>天主教會</t>
+    <t>天主教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%84%80%E5%A4%A9%E4%B8%BB%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>東儀天主教會</t>
+    <t>东仪天主教会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Independent_Catholic_churches</t>
@@ -587,13 +587,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E5%A4%A9%E4%B8%BB%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>舊天主教會</t>
+    <t>旧天主教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%88%BE%E9%A6%AC%E7%88%BE%E5%A4%A9%E4%B8%BB%E6%95%99%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>帕爾馬爾天主教教會</t>
+    <t>帕尔马尔天主教教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A9%E4%B8%BB%E6%95%99%E7%88%B1%E5%9B%BD%E4%BC%9A</t>
@@ -617,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>正教會</t>
+    <t>正教会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Western_Rite_Orthodoxy</t>
@@ -635,19 +635,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E6%AD%A3%E7%B5%B1%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>東方正統教會</t>
+    <t>东方正统教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%B6%E6%96%AF%E8%84%AB%E9%87%8C%E6%B4%BE%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>聶斯脫里派教會</t>
+    <t>聂斯脱里派教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E4%BA%9E%E8%BF%B0%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>東方亞述教會</t>
+    <t>东方亚述教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AF%E6%95%99</t>
@@ -677,25 +677,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E7%BE%A9%E5%AE%97</t>
   </si>
   <si>
-    <t>信義宗</t>
+    <t>信义宗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%88%BE%E6%96%87%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>加爾文主義</t>
+    <t>加尔文主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B8%E6%AD%A3%E5%AE%97</t>
   </si>
   <si>
-    <t>歸正宗</t>
+    <t>归正宗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E8%80%81%E5%AE%97</t>
   </si>
   <si>
-    <t>長老宗</t>
+    <t>长老宗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%90%86%E4%BC%9A</t>
@@ -707,7 +707,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%AC%E5%AE%97</t>
   </si>
   <si>
-    <t>聖公宗</t>
+    <t>圣公宗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%8D%E6%B4%97%E7%A4%BC%E6%B4%BE</t>
@@ -719,7 +719,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%80%E8%AB%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>門諾會</t>
+    <t>门诺会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%B1%B3%E4%BB%80%E4%BA%BA</t>
@@ -743,7 +743,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B0%91%E5%BF%B5%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>阿民念主義</t>
+    <t>阿民念主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AA%E9%81%93%E5%AE%97</t>
@@ -755,19 +755,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E6%92%92%E5%8B%92%E4%BA%BA%E6%9C%83</t>
   </si>
   <si>
-    <t>拿撒勒人會</t>
+    <t>拿撒勒人会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E5%BE%A9%E8%87%A8%E5%AE%89%E6%81%AF%E6%97%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>基督復臨安息日會</t>
+    <t>基督复临安息日会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%97%AC%E7%AF%80%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>五旬節運動</t>
+    <t>五旬节运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%88%A9%E8%8C%85%E6%96%AF%E5%BC%9F%E5%85%84%E4%BC%9A</t>
@@ -779,13 +779,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E6%A0%BC%E6%9C%83</t>
   </si>
   <si>
-    <t>貴格會</t>
+    <t>贵格会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E5%AE%A3%E9%81%93%E6%9C%83</t>
   </si>
   <si>
-    <t>基督教宣道會</t>
+    <t>基督教宣道会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%96%B9%E6%95%99%E4%BC%9A</t>
@@ -797,61 +797,61 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AC%E6%9C%83</t>
   </si>
   <si>
-    <t>召會</t>
+    <t>召会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%A2%E5%BE%A9%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>恢復運動</t>
+    <t>恢复运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%BD%94%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>聖潔運動</t>
+    <t>圣洁运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E4%B8%89%E4%BD%8D%E4%B8%80%E9%AB%94%E6%B4%BE</t>
   </si>
   <si>
-    <t>非三位一體派</t>
+    <t>非三位一体派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E5%92%8C%E8%8F%AF%E8%A6%8B%E8%AD%89%E4%BA%BA</t>
   </si>
   <si>
-    <t>耶和華見證人</t>
+    <t>耶和华见证人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E6%9C%9F%E8%81%96%E5%BE%92%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>後期聖徒運動</t>
+    <t>后期圣徒运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E5%BC%9F%E5%85%84%E6%9C%83</t>
   </si>
   <si>
-    <t>基督弟兄會</t>
+    <t>基督弟兄会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%9F%E8%80%B6%E7%A9%8C%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>真耶穌教會</t>
+    <t>真耶稣教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E7%A7%91%E5%AD%B8%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>基督科學教會</t>
+    <t>基督科学教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%B8%81%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>馬丁主義</t>
+    <t>马丁主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Messianic_Judaism</t>
@@ -869,7 +869,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%91%E4%B8%96%E8%BB%8D</t>
   </si>
   <si>
-    <t>救世軍</t>
+    <t>救世军</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Jesuism</t>
@@ -887,13 +887,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8E%9F%E4%BD%8F%E6%B0%91%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>美國原住民教會</t>
+    <t>美国原住民教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E8%97%9D%E8%A1%93</t>
   </si>
   <si>
-    <t>基督教藝術</t>
+    <t>基督教艺术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E9%9F%B3%E4%B9%90</t>
@@ -905,7 +905,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E7%A6%AE%E6%8B%9C%E5%84%80%E5%BC%8F</t>
   </si>
   <si>
-    <t>基督教禮拜儀式</t>
+    <t>基督教礼拜仪式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%81%93</t>
@@ -923,19 +923,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E7%A5%9E%E7%A7%98%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>基督教神秘主義</t>
+    <t>基督教神秘主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%82%B3%E5%9F%BA%E7%9D%A3%E6%95%99</t>
   </si>
   <si>
-    <t>密傳基督教</t>
+    <t>密传基督教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E6%96%AF%E5%BA%95%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>諾斯底主義</t>
+    <t>诺斯底主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Christianity_and_other_religions</t>
@@ -947,7 +947,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E6%9C%83%E5%B9%B4%E6%9B%86</t>
   </si>
   <si>
-    <t>教會年曆</t>
+    <t>教会年历</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Christian_symbolism</t>
@@ -965,7 +965,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E7%A6%AE</t>
   </si>
   <si>
-    <t>亞歷山大禮</t>
+    <t>亚历山大礼</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Antiochene_Rite</t>
@@ -977,7 +977,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E%E7%A6%AE</t>
   </si>
   <si>
-    <t>亞美尼亞禮</t>
+    <t>亚美尼亚礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9C%E5%8D%A0%E5%BA%AD%E7%A4%BC</t>
@@ -995,25 +995,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%A6%AE%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>拉丁禮教會</t>
+    <t>拉丁礼教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%AB%8B%E7%94%98%E7%BF%92%E4%BE%8B</t>
   </si>
   <si>
-    <t>安立甘習例</t>
+    <t>安立甘习例</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E7%A6%AE</t>
   </si>
   <si>
-    <t>羅馬禮</t>
+    <t>罗马礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%8D%9A%E7%A6%AE</t>
   </si>
   <si>
-    <t>安博禮</t>
+    <t>安博礼</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sarum_Rite</t>
@@ -1025,7 +1025,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%88%BE%E9%98%BF%E6%8B%89%E4%BC%AF%E7%A6%AE</t>
   </si>
   <si>
-    <t>摩爾阿拉伯禮</t>
+    <t>摩尔阿拉伯礼</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Church_architecture</t>
@@ -1073,13 +1073,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%B8%BD%E4%B8%BB%E6%95%99</t>
   </si>
   <si>
-    <t>大總主教</t>
+    <t>大总主教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%9E%E6%A9%9F</t>
   </si>
   <si>
-    <t>樞機</t>
+    <t>枢机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%95%99</t>
@@ -1097,7 +1097,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E4%BA%8B</t>
   </si>
   <si>
-    <t>執事</t>
+    <t>执事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A0%E6%95%99%E5%A3%AB</t>
@@ -1121,7 +1121,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%94%E7%A5%AD</t>
   </si>
   <si>
-    <t>輔祭</t>
+    <t>辅祭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E4%BF%A1%E5%BE%92</t>
@@ -1157,7 +1157,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99%E6%9C%83%E5%A4%A7%E5%88%86%E8%A3%82</t>
   </si>
   <si>
-    <t>天主教會大分裂</t>
+    <t>天主教会大分裂</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Catholic_Church_by_country</t>
@@ -1169,7 +1169,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7%E5%A4%96%E4%BA%A4</t>
   </si>
   <si>
-    <t>聖座外交</t>
+    <t>圣座外交</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E7%9A%87%E5%9B%BD</t>
@@ -1193,7 +1193,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%9E%E6%A9%9F%E5%9C%98</t>
   </si>
   <si>
-    <t>樞機團</t>
+    <t>枢机团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9D%A3%E4%B8%BB%E6%95%99</t>
@@ -1205,7 +1205,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%95%99%E9%95%B7</t>
   </si>
   <si>
-    <t>主教長</t>
+    <t>主教长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%BB%B7%E5%A4%A7%E4%BD%BF</t>
@@ -1217,7 +1217,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%94%E7%90%86%E4%B8%BB%E6%95%99</t>
   </si>
   <si>
-    <t>輔理主教</t>
+    <t>辅理主教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E4%B8%BB%E6%95%99</t>
@@ -1229,25 +1229,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%B2%BB%E7%9B%A3%E7%9D%A3%E5%8D%80</t>
   </si>
   <si>
-    <t>自治監督區</t>
+    <t>自治监督区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%B2%BB%E6%9C%83%E9%99%A2%E5%8D%80</t>
   </si>
   <si>
-    <t>自治會院區</t>
+    <t>自治会院区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E5%BA%A7%E4%BB%A3%E7%89%A7%E5%8D%80</t>
   </si>
   <si>
-    <t>宗座代牧區</t>
+    <t>宗座代牧区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E5%BA%A7%E7%9B%A3%E7%89%A7</t>
   </si>
   <si>
-    <t>宗座監牧</t>
+    <t>宗座监牧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E5%BA%A7%E7%BD%B2%E7%90%86</t>
@@ -1259,25 +1259,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%B8%AD%E6%95%99%E9%95%B7%E5%8D%80</t>
   </si>
   <si>
-    <t>軍中教長區</t>
+    <t>军中教长区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%B2%BB%E5%82%B3%E6%95%99%E5%8D%80</t>
   </si>
   <si>
-    <t>自治傳教區</t>
+    <t>自治传教区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%88%A5%E4%B8%BB%E6%95%99%E8%BD%84%E5%8D%80</t>
   </si>
   <si>
-    <t>特別主教轄區</t>
+    <t>特别主教辖区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E9%90%B8%E5%8D%80</t>
   </si>
   <si>
-    <t>總鐸區</t>
+    <t>总铎区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%B8%AD</t>
@@ -1307,7 +1307,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E4%BA%8B_(%E5%9F%BA%E7%9D%A3%E6%95%99)</t>
   </si>
   <si>
-    <t>執事 (基督教)</t>
+    <t>执事 (基督教)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99%E6%95%99%E7%90%86</t>
@@ -1319,9 +1319,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%BD%8D%E4%B8%80%E9%AB%94</t>
   </si>
   <si>
-    <t>三位一體</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E6%88%90%E8%82%89%E8%BA%AB</t>
   </si>
   <si>
@@ -1361,7 +1358,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E8%AA%A1</t>
   </si>
   <si>
-    <t>十誡</t>
+    <t>十诫</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Commandments_of_the_Church</t>
@@ -1373,7 +1370,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%85%AC%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>大公教會</t>
+    <t>大公教会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Roman_Catholic_dogma</t>
@@ -1391,13 +1388,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E4%B8%8A%E5%AF%B6%E8%A8%93</t>
   </si>
   <si>
-    <t>山上寶訓</t>
+    <t>山上宝训</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%A6%AE</t>
   </si>
   <si>
-    <t>聖禮</t>
+    <t>圣礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%9A%E6%8C%AF%E5%9C%A3%E4%BA%8B</t>
@@ -1409,25 +1406,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A4%90%E7%A6%AE</t>
   </si>
   <si>
-    <t>聖餐禮</t>
+    <t>圣餐礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%A5%BD%E8%81%96%E4%BA%8B</t>
   </si>
   <si>
-    <t>和好聖事</t>
+    <t>和好圣事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%97%85%E4%BA%BA%E5%82%85%E6%B2%B9%E8%81%96%E4%BA%8B</t>
   </si>
   <si>
-    <t>病人傅油聖事</t>
+    <t>病人傅油圣事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E5%A9%9A%E5%A7%BB%E8%A7%80</t>
   </si>
   <si>
-    <t>基督教婚姻觀</t>
+    <t>基督教婚姻观</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mariology</t>
@@ -1499,19 +1496,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E6%9C%83%E8%81%96%E5%B8%AB</t>
   </si>
   <si>
-    <t>教會聖師</t>
+    <t>教会圣师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE%E4%BC%AF%E5%9C%96%E6%96%AF%C2%B7%E9%BA%A5%E6%A0%BC%E5%8A%AA%E6%96%AF</t>
   </si>
   <si>
-    <t>艾爾伯圖斯·麥格努斯</t>
+    <t>艾尔伯图斯·麦格努斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%B3%A2%E7%BE%85%E4%BF%AE</t>
   </si>
   <si>
-    <t>安波羅修</t>
+    <t>安波罗修</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E7%89%B9%E4%BC%AF%E9%9B%B7%E7%9A%84%E5%AE%89%E7%91%9F%E8%8E%AB</t>
@@ -1523,7 +1520,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E6%96%AF%E6%9C%AC%E7%9A%84%E8%81%96%E5%AE%89%E5%A4%9A%E5%B0%BC</t>
   </si>
   <si>
-    <t>里斯本的聖安多尼</t>
+    <t>里斯本的圣安多尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E4%BB%96%E9%82%A3%E4%BF%AE</t>
@@ -1535,7 +1532,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B2%E6%92%92%E5%88%A9%E4%BA%9E%E7%9A%84%E5%B7%B4%E8%A5%BF%E6%B5%81</t>
   </si>
   <si>
-    <t>該撒利亞的巴西流</t>
+    <t>该撒利亚的巴西流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%BE%B7</t>
@@ -1547,19 +1544,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E4%BC%AF%C2%B7%E7%99%BD%E6%95%8F</t>
   </si>
   <si>
-    <t>聖羅伯·白敏</t>
+    <t>圣罗伯·白敏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%88%BE%E7%B4%8D%E9%90%B8</t>
   </si>
   <si>
-    <t>伯爾納鐸</t>
+    <t>伯尔纳铎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%96%87%E5%BE%B7</t>
   </si>
   <si>
-    <t>聖文德</t>
+    <t>圣文德</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Peter_Canisius</t>
@@ -1571,7 +1568,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%8A%A0%E5%A4%A7%E5%88%A9%E7%B4%8D</t>
   </si>
   <si>
-    <t>聖加大利納</t>
+    <t>圣加大利纳</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Peter_Chrysologus</t>
@@ -1589,7 +1586,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E7%9A%84%E5%8D%80%E5%88%A9%E7%BE%85</t>
   </si>
   <si>
-    <t>亞歷山大的區利羅</t>
+    <t>亚历山大的区利罗</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cyril_of_Jerusalem</t>
@@ -1607,25 +1604,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%80%B6%E7%A6%8F%E5%88%97%E6%9C%A8</t>
   </si>
   <si>
-    <t>聖耶福列木</t>
+    <t>圣耶福列木</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%96%B9%E6%BF%9F%E5%90%84%C2%B7%E6%B2%99%E9%9B%B7%E6%B0%8F</t>
   </si>
   <si>
-    <t>聖方濟各·沙雷氏</t>
+    <t>圣方济各·沙雷氏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97%E9%A1%8D%E6%88%91%E7%95%A5%E4%B8%80%E4%B8%96</t>
   </si>
   <si>
-    <t>教宗額我略一世</t>
+    <t>教宗额我略一世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A1%8D%E6%88%91%E7%95%A5%C2%B7%E7%B4%8D%E9%BD%8A%E5%AE%89</t>
   </si>
   <si>
-    <t>聖額我略·納齊安</t>
+    <t>圣额我略·纳齐安</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Hilary_of_Poitiers</t>
@@ -1649,7 +1646,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%A6%AC%E5%A3%AB%E9%9D%A9%E7%9A%84%E8%81%96%E7%B4%84%E7%BF%B0</t>
   </si>
   <si>
-    <t>大馬士革的聖約翰</t>
+    <t>大马士革的圣约翰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E5%AD%97%E8%8B%A5%E6%9C%9B</t>
@@ -1679,13 +1676,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E9%9B%AA%E7%9A%84%E5%BE%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>利雪的德蘭</t>
+    <t>利雪的德兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%B6%AD%E6%8B%89%E7%9A%84%E5%BE%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>亞維拉的德蘭</t>
+    <t>亚维拉的德兰</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/John_of_%C3%81vila</t>
@@ -1703,13 +1700,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E9%9B%B7%E7%A7%91%E7%9A%84%E8%81%96%E9%A1%8D%E6%88%91%E7%95%A5</t>
   </si>
   <si>
-    <t>納雷科的聖額我略</t>
+    <t>纳雷科的圣额我略</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E6%BF%9F%E5%90%84_(%E6%95%99%E5%AE%97)</t>
   </si>
   <si>
-    <t>方濟各 (教宗)</t>
+    <t>方济各 (教宗)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2013%E5%B9%B4%E6%95%99%E5%AE%97%E9%80%89%E4%B8%BE%E7%A7%98%E5%AF%86%E4%BC%9A%E8%AE%AE</t>
@@ -1763,13 +1760,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E6%BF%9F%E5%90%84%E6%95%99%E5%AE%97%E7%89%A7%E5%BE%BD</t>
   </si>
   <si>
-    <t>方濟各教宗牧徽</t>
+    <t>方济各教宗牧徽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%91%AA%E7%88%BE%E5%A4%A7%E4%B9%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>聖瑪爾大之家</t>
+    <t>圣玛尔大之家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97%E5%88%97%E8%A1%A8</t>
@@ -1781,13 +1778,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E7%AF%A4%E5%8D%81%E5%85%AD%E4%B8%96</t>
   </si>
   <si>
-    <t>本篤十六世</t>
+    <t>本笃十六世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%A5%E6%9C%9B%C2%B7%E4%BF%9D%E7%A5%BF%E4%BA%8C%E4%B8%96</t>
   </si>
   <si>
-    <t>若望·保祿二世</t>
+    <t>若望·保禄二世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%A5%E6%9C%9B%C2%B7%E4%BF%9D%E7%A6%84%E4%B8%80%E4%B8%96</t>
@@ -1799,7 +1796,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%A5%BF%E5%85%AD%E4%B8%96</t>
   </si>
   <si>
-    <t>保祿六世</t>
+    <t>保禄六世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%A5%E6%9C%9B%E4%BA%8C%E5%8D%81%E4%B8%89%E4%B8%96</t>
@@ -1811,25 +1808,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%87%E8%AD%B7%E5%8D%81%E4%BA%8C%E4%B8%96</t>
   </si>
   <si>
-    <t>庇護十二世</t>
+    <t>庇护十二世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%87%E8%AD%B7%E5%8D%81%E4%B8%80%E4%B8%96</t>
   </si>
   <si>
-    <t>庇護十一世</t>
+    <t>庇护十一世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E7%AF%A4%E5%8D%81%E4%BA%94%E4%B8%96</t>
   </si>
   <si>
-    <t>本篤十五世</t>
+    <t>本笃十五世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%87%E8%AD%B7%E5%8D%81%E4%B8%96</t>
   </si>
   <si>
-    <t>庇護十世</t>
+    <t>庇护十世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%A5%A5%E5%8D%81%E4%B8%89%E4%B8%96</t>
@@ -1841,7 +1838,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%87%E8%AD%B7%E4%B9%9D%E4%B8%96</t>
   </si>
   <si>
-    <t>庇護九世</t>
+    <t>庇护九世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%AE%E9%81%93_(%E5%9F%BA%E7%9D%A3%E6%95%99)</t>
@@ -1871,19 +1868,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E5%AE%9A%E6%9C%83</t>
   </si>
   <si>
-    <t>奧斯定會</t>
+    <t>奥斯定会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%88%BE%E9%83%BD%E8%A5%BF%E6%9C%83</t>
   </si>
   <si>
-    <t>加爾都西會</t>
+    <t>加尔都西会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E6%98%8E%E6%9C%83</t>
   </si>
   <si>
-    <t>道明會</t>
+    <t>道明会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E6%B5%8E%E5%90%84%E4%BC%9A</t>
@@ -1901,7 +1898,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E6%BF%9F%E5%98%89%E5%B8%83%E9%81%A3%E6%9C%83</t>
   </si>
   <si>
-    <t>方濟嘉布遣會</t>
+    <t>方济嘉布遣会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A8%A3%E4%BC%9A</t>
@@ -1913,7 +1910,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%85%88%E5%B9%BC%E6%9C%83</t>
   </si>
   <si>
-    <t>慈幼會</t>
+    <t>慈幼会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E5%BE%92%E4%BC%9A</t>
@@ -1955,7 +1952,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%86%B7%E5%A4%96%E6%96%B9%E5%82%B3%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>白冷外方傳教會</t>
+    <t>白冷外方传教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%A4%96%E6%96%B9%E4%BC%A0%E6%95%99%E4%BC%9A</t>
@@ -1967,7 +1964,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E5%BA%A7%E5%A4%96%E6%96%B9%E5%82%B3%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>宗座外方傳教會</t>
+    <t>宗座外方传教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E4%B8%9A%E4%BC%9A</t>
@@ -1979,7 +1976,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E6%A2%B5%E8%92%82%E5%B2%A1%E5%A4%A7%E5%85%AC%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>第二次梵蒂岡大公會議</t>
+    <t>第二次梵蒂冈大公会议</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Subsistit_in</t>
@@ -2003,13 +2000,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E6%9C%83%E6%86%B2%E7%AB%A0</t>
   </si>
   <si>
-    <t>教會憲章</t>
+    <t>教会宪章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E6%9C%83%E5%B0%8D%E9%9D%9E%E5%9F%BA%E7%9D%A3%E5%AE%97%E6%95%99%E6%85%8B%E5%BA%A6%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>教會對非基督宗教態度宣言</t>
+    <t>教会对非基督宗教态度宣言</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sacrosanctum_Concilium</t>
@@ -2021,25 +2018,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E5%88%A5%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>個別教會</t>
+    <t>个别教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%99%AE%E7%89%B9%E7%A6%AE%E5%A4%A9%E4%B8%BB%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>科普特禮天主教會</t>
+    <t>科普特礼天主教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E%E7%A6%AE%E5%A4%A9%E4%B8%BB%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>衣索比亞禮天主教會</t>
+    <t>衣索比亚礼天主教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%AB%8B%E7%89%B9%E9%87%8C%E4%BA%9E%E7%A6%AE%E5%A4%A9%E4%B8%BB%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>厄立特里亞禮天主教會</t>
+    <t>厄立特里亚礼天主教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%BE%99%E5%B0%BC%E7%A4%BC%E6%95%99%E4%BC%9A</t>
@@ -2051,7 +2048,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E7%A6%AE%E5%A4%A9%E4%B8%BB%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>敘利亞禮天主教會</t>
+    <t>叙利亚礼天主教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A-%E7%8E%9B%E5%85%B0%E5%8D%A1%E7%A4%BC%E5%A4%A9%E4%B8%BB%E6%95%99%E4%BC%9A</t>
@@ -2063,13 +2060,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E%E7%A6%AE%E5%A4%A9%E4%B8%BB%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>亞美尼亞禮天主教會</t>
+    <t>亚美尼亚礼天主教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%89%B2%E4%B8%81%E7%A6%AE%E5%A4%A9%E4%B8%BB%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>加色丁禮天主教會</t>
+    <t>加色丁礼天主教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A-%E7%8E%9B%E6%8B%89%E5%B7%B4%E7%A4%BC%E5%A4%A9%E4%B8%BB%E6%95%99%E4%BC%9A</t>
@@ -2081,7 +2078,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF%E5%B8%8C%E8%87%98%E7%A6%AE%E5%A4%A9%E4%B8%BB%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>白俄羅斯希臘禮天主教會</t>
+    <t>白俄罗斯希腊礼天主教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A%E5%B8%8C%E8%85%8A%E7%A4%BC%E5%A4%A9%E4%B8%BB%E6%95%99%E4%BC%9A</t>
@@ -2093,7 +2090,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E%E5%B8%8C%E8%87%98%E7%A6%AE%E5%A4%A9%E4%B8%BB%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>保加利亞希臘禮天主教會</t>
+    <t>保加利亚希腊礼天主教会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Byzantine_Church_of_Croatia,_Serbia_and_Montenegro</t>
@@ -2111,13 +2108,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9%E5%B8%8C%E8%87%98%E7%A6%AE%E5%A4%A9%E4%B8%BB%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>匈牙利希臘禮天主教會</t>
+    <t>匈牙利希腊礼天主教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9-%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E%E7%A6%AE%E5%A4%A9%E4%B8%BB%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>義大利-阿爾巴尼亞禮天主教會</t>
+    <t>义大利-阿尔巴尼亚礼天主教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%B6%E9%A1%BF%E5%B8%8C%E8%85%8A%E7%A4%BC%E5%A4%A9%E4%B8%BB%E6%95%99%E4%BC%9A</t>
@@ -2129,7 +2126,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E5%9F%BA%E7%89%B9%E5%B8%8C%E8%87%98%E7%A6%AE%E5%A4%A9%E4%B8%BB%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>默基特希臘禮天主教會</t>
+    <t>默基特希腊礼天主教会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Romanian_Church_United_with_Rome,_Greek-Catholic</t>
@@ -2147,13 +2144,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E5%A1%9E%E5%B0%BC%E4%BA%9E%E7%A6%AE%E5%A4%A9%E4%B8%BB%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>魯塞尼亞禮天主教會</t>
+    <t>鲁塞尼亚礼天主教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E5%B8%8C%E8%87%98%E7%A6%AE%E5%A4%A9%E4%B8%BB%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>斯洛伐克希臘禮天主教會</t>
+    <t>斯洛伐克希腊礼天主教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0%E5%B8%8C%E8%85%8A%E7%A4%BC%E5%A4%A9%E4%B8%BB%E6%95%99%E4%BC%9A</t>
@@ -2165,13 +2162,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%B8%BB%E6%95%99%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>世界主教會議</t>
+    <t>世界主教会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%AB%94%E5%A4%A7%E6%9C%83</t>
   </si>
   <si>
-    <t>聖體大會</t>
+    <t>圣体大会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%9D%92%E5%B9%B4%E6%97%A5</t>
@@ -2183,7 +2180,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E9%9D%92%E5%B9%B4%E6%97%A5</t>
   </si>
   <si>
-    <t>亞洲青年日</t>
+    <t>亚洲青年日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/.catholic</t>
@@ -2195,7 +2192,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -9396,7 +9393,7 @@
         <v>433</v>
       </c>
       <c r="F236" t="s">
-        <v>434</v>
+        <v>102</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -9422,10 +9419,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>434</v>
+      </c>
+      <c r="F237" t="s">
         <v>435</v>
-      </c>
-      <c r="F237" t="s">
-        <v>436</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9451,10 +9448,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>436</v>
+      </c>
+      <c r="F238" t="s">
         <v>437</v>
-      </c>
-      <c r="F238" t="s">
-        <v>438</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9480,10 +9477,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>438</v>
+      </c>
+      <c r="F239" t="s">
         <v>439</v>
-      </c>
-      <c r="F239" t="s">
-        <v>440</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9509,10 +9506,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>440</v>
+      </c>
+      <c r="F240" t="s">
         <v>441</v>
-      </c>
-      <c r="F240" t="s">
-        <v>442</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -9538,10 +9535,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>442</v>
+      </c>
+      <c r="F241" t="s">
         <v>443</v>
-      </c>
-      <c r="F241" t="s">
-        <v>444</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9567,10 +9564,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>444</v>
+      </c>
+      <c r="F242" t="s">
         <v>445</v>
-      </c>
-      <c r="F242" t="s">
-        <v>446</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9596,10 +9593,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>446</v>
+      </c>
+      <c r="F243" t="s">
         <v>447</v>
-      </c>
-      <c r="F243" t="s">
-        <v>448</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9625,10 +9622,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>448</v>
+      </c>
+      <c r="F244" t="s">
         <v>449</v>
-      </c>
-      <c r="F244" t="s">
-        <v>450</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9683,10 +9680,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>450</v>
+      </c>
+      <c r="F246" t="s">
         <v>451</v>
-      </c>
-      <c r="F246" t="s">
-        <v>452</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -9741,10 +9738,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>452</v>
+      </c>
+      <c r="F248" t="s">
         <v>453</v>
-      </c>
-      <c r="F248" t="s">
-        <v>454</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9770,10 +9767,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>454</v>
+      </c>
+      <c r="F249" t="s">
         <v>455</v>
-      </c>
-      <c r="F249" t="s">
-        <v>456</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9799,10 +9796,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>456</v>
+      </c>
+      <c r="F250" t="s">
         <v>457</v>
-      </c>
-      <c r="F250" t="s">
-        <v>458</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9828,10 +9825,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>458</v>
+      </c>
+      <c r="F251" t="s">
         <v>459</v>
-      </c>
-      <c r="F251" t="s">
-        <v>460</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9886,10 +9883,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>460</v>
+      </c>
+      <c r="F253" t="s">
         <v>461</v>
-      </c>
-      <c r="F253" t="s">
-        <v>462</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9915,10 +9912,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>462</v>
+      </c>
+      <c r="F254" t="s">
         <v>463</v>
-      </c>
-      <c r="F254" t="s">
-        <v>464</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9944,10 +9941,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>464</v>
+      </c>
+      <c r="F255" t="s">
         <v>465</v>
-      </c>
-      <c r="F255" t="s">
-        <v>466</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9973,10 +9970,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>466</v>
+      </c>
+      <c r="F256" t="s">
         <v>467</v>
-      </c>
-      <c r="F256" t="s">
-        <v>468</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10031,10 +10028,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>468</v>
+      </c>
+      <c r="F258" t="s">
         <v>469</v>
-      </c>
-      <c r="F258" t="s">
-        <v>470</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10060,10 +10057,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>470</v>
+      </c>
+      <c r="F259" t="s">
         <v>471</v>
-      </c>
-      <c r="F259" t="s">
-        <v>472</v>
       </c>
       <c r="G259" t="n">
         <v>5</v>
@@ -10089,10 +10086,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>472</v>
+      </c>
+      <c r="F260" t="s">
         <v>473</v>
-      </c>
-      <c r="F260" t="s">
-        <v>474</v>
       </c>
       <c r="G260" t="n">
         <v>2</v>
@@ -10118,10 +10115,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>474</v>
+      </c>
+      <c r="F261" t="s">
         <v>475</v>
-      </c>
-      <c r="F261" t="s">
-        <v>476</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10176,10 +10173,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>476</v>
+      </c>
+      <c r="F263" t="s">
         <v>477</v>
-      </c>
-      <c r="F263" t="s">
-        <v>478</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10205,10 +10202,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
+        <v>478</v>
+      </c>
+      <c r="F264" t="s">
         <v>479</v>
-      </c>
-      <c r="F264" t="s">
-        <v>480</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10234,10 +10231,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
+        <v>480</v>
+      </c>
+      <c r="F265" t="s">
         <v>481</v>
-      </c>
-      <c r="F265" t="s">
-        <v>482</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10263,10 +10260,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
+        <v>482</v>
+      </c>
+      <c r="F266" t="s">
         <v>483</v>
-      </c>
-      <c r="F266" t="s">
-        <v>484</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10292,10 +10289,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
+        <v>484</v>
+      </c>
+      <c r="F267" t="s">
         <v>485</v>
-      </c>
-      <c r="F267" t="s">
-        <v>486</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10321,10 +10318,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
+        <v>486</v>
+      </c>
+      <c r="F268" t="s">
         <v>487</v>
-      </c>
-      <c r="F268" t="s">
-        <v>488</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10350,10 +10347,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
+        <v>488</v>
+      </c>
+      <c r="F269" t="s">
         <v>489</v>
-      </c>
-      <c r="F269" t="s">
-        <v>490</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10379,10 +10376,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
+        <v>490</v>
+      </c>
+      <c r="F270" t="s">
         <v>491</v>
-      </c>
-      <c r="F270" t="s">
-        <v>492</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -10408,10 +10405,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
+        <v>492</v>
+      </c>
+      <c r="F271" t="s">
         <v>493</v>
-      </c>
-      <c r="F271" t="s">
-        <v>494</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10437,10 +10434,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
+        <v>494</v>
+      </c>
+      <c r="F272" t="s">
         <v>495</v>
-      </c>
-      <c r="F272" t="s">
-        <v>496</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10466,10 +10463,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
+        <v>496</v>
+      </c>
+      <c r="F273" t="s">
         <v>497</v>
-      </c>
-      <c r="F273" t="s">
-        <v>498</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10495,10 +10492,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
+        <v>498</v>
+      </c>
+      <c r="F274" t="s">
         <v>499</v>
-      </c>
-      <c r="F274" t="s">
-        <v>500</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10524,10 +10521,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
+        <v>500</v>
+      </c>
+      <c r="F275" t="s">
         <v>501</v>
-      </c>
-      <c r="F275" t="s">
-        <v>502</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10582,10 +10579,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
+        <v>502</v>
+      </c>
+      <c r="F277" t="s">
         <v>503</v>
-      </c>
-      <c r="F277" t="s">
-        <v>504</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10640,10 +10637,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
+        <v>504</v>
+      </c>
+      <c r="F279" t="s">
         <v>505</v>
-      </c>
-      <c r="F279" t="s">
-        <v>506</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10669,10 +10666,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
+        <v>506</v>
+      </c>
+      <c r="F280" t="s">
         <v>507</v>
-      </c>
-      <c r="F280" t="s">
-        <v>508</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10698,10 +10695,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
+        <v>508</v>
+      </c>
+      <c r="F281" t="s">
         <v>509</v>
-      </c>
-      <c r="F281" t="s">
-        <v>510</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10727,10 +10724,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
+        <v>510</v>
+      </c>
+      <c r="F282" t="s">
         <v>511</v>
-      </c>
-      <c r="F282" t="s">
-        <v>512</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10756,10 +10753,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
+        <v>512</v>
+      </c>
+      <c r="F283" t="s">
         <v>513</v>
-      </c>
-      <c r="F283" t="s">
-        <v>514</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10785,10 +10782,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
+        <v>514</v>
+      </c>
+      <c r="F284" t="s">
         <v>515</v>
-      </c>
-      <c r="F284" t="s">
-        <v>516</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10814,10 +10811,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
+        <v>516</v>
+      </c>
+      <c r="F285" t="s">
         <v>517</v>
-      </c>
-      <c r="F285" t="s">
-        <v>518</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10843,10 +10840,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
+        <v>518</v>
+      </c>
+      <c r="F286" t="s">
         <v>519</v>
-      </c>
-      <c r="F286" t="s">
-        <v>520</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10872,10 +10869,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
+        <v>520</v>
+      </c>
+      <c r="F287" t="s">
         <v>521</v>
-      </c>
-      <c r="F287" t="s">
-        <v>522</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10901,10 +10898,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
+        <v>522</v>
+      </c>
+      <c r="F288" t="s">
         <v>523</v>
-      </c>
-      <c r="F288" t="s">
-        <v>524</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10930,10 +10927,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
+        <v>524</v>
+      </c>
+      <c r="F289" t="s">
         <v>525</v>
-      </c>
-      <c r="F289" t="s">
-        <v>526</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10959,10 +10956,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
+        <v>526</v>
+      </c>
+      <c r="F290" t="s">
         <v>527</v>
-      </c>
-      <c r="F290" t="s">
-        <v>528</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10988,10 +10985,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
+        <v>528</v>
+      </c>
+      <c r="F291" t="s">
         <v>529</v>
-      </c>
-      <c r="F291" t="s">
-        <v>530</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11017,10 +11014,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
+        <v>530</v>
+      </c>
+      <c r="F292" t="s">
         <v>531</v>
-      </c>
-      <c r="F292" t="s">
-        <v>532</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11046,10 +11043,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
+        <v>532</v>
+      </c>
+      <c r="F293" t="s">
         <v>533</v>
-      </c>
-      <c r="F293" t="s">
-        <v>534</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11075,10 +11072,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
+        <v>534</v>
+      </c>
+      <c r="F294" t="s">
         <v>535</v>
-      </c>
-      <c r="F294" t="s">
-        <v>536</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11104,10 +11101,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
+        <v>536</v>
+      </c>
+      <c r="F295" t="s">
         <v>537</v>
-      </c>
-      <c r="F295" t="s">
-        <v>538</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11133,10 +11130,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
+        <v>538</v>
+      </c>
+      <c r="F296" t="s">
         <v>539</v>
-      </c>
-      <c r="F296" t="s">
-        <v>540</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11162,10 +11159,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
+        <v>540</v>
+      </c>
+      <c r="F297" t="s">
         <v>541</v>
-      </c>
-      <c r="F297" t="s">
-        <v>542</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11191,10 +11188,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
+        <v>542</v>
+      </c>
+      <c r="F298" t="s">
         <v>543</v>
-      </c>
-      <c r="F298" t="s">
-        <v>544</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11220,10 +11217,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
+        <v>544</v>
+      </c>
+      <c r="F299" t="s">
         <v>545</v>
-      </c>
-      <c r="F299" t="s">
-        <v>546</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11249,10 +11246,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
+        <v>546</v>
+      </c>
+      <c r="F300" t="s">
         <v>547</v>
-      </c>
-      <c r="F300" t="s">
-        <v>548</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11278,10 +11275,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
+        <v>548</v>
+      </c>
+      <c r="F301" t="s">
         <v>549</v>
-      </c>
-      <c r="F301" t="s">
-        <v>550</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11307,10 +11304,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
+        <v>550</v>
+      </c>
+      <c r="F302" t="s">
         <v>551</v>
-      </c>
-      <c r="F302" t="s">
-        <v>552</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11336,10 +11333,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
+        <v>552</v>
+      </c>
+      <c r="F303" t="s">
         <v>553</v>
-      </c>
-      <c r="F303" t="s">
-        <v>554</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11365,10 +11362,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
+        <v>554</v>
+      </c>
+      <c r="F304" t="s">
         <v>555</v>
-      </c>
-      <c r="F304" t="s">
-        <v>556</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11394,10 +11391,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
+        <v>556</v>
+      </c>
+      <c r="F305" t="s">
         <v>557</v>
-      </c>
-      <c r="F305" t="s">
-        <v>558</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11423,10 +11420,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
+        <v>558</v>
+      </c>
+      <c r="F306" t="s">
         <v>559</v>
-      </c>
-      <c r="F306" t="s">
-        <v>560</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11452,10 +11449,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
+        <v>560</v>
+      </c>
+      <c r="F307" t="s">
         <v>561</v>
-      </c>
-      <c r="F307" t="s">
-        <v>562</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11481,10 +11478,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
+        <v>562</v>
+      </c>
+      <c r="F308" t="s">
         <v>563</v>
-      </c>
-      <c r="F308" t="s">
-        <v>564</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11510,10 +11507,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
+        <v>564</v>
+      </c>
+      <c r="F309" t="s">
         <v>565</v>
-      </c>
-      <c r="F309" t="s">
-        <v>566</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11539,10 +11536,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
+        <v>566</v>
+      </c>
+      <c r="F310" t="s">
         <v>567</v>
-      </c>
-      <c r="F310" t="s">
-        <v>568</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11568,10 +11565,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
+        <v>568</v>
+      </c>
+      <c r="F311" t="s">
         <v>569</v>
-      </c>
-      <c r="F311" t="s">
-        <v>570</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11597,10 +11594,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
+        <v>570</v>
+      </c>
+      <c r="F312" t="s">
         <v>571</v>
-      </c>
-      <c r="F312" t="s">
-        <v>572</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11626,10 +11623,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
+        <v>572</v>
+      </c>
+      <c r="F313" t="s">
         <v>573</v>
-      </c>
-      <c r="F313" t="s">
-        <v>574</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11655,10 +11652,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
+        <v>574</v>
+      </c>
+      <c r="F314" t="s">
         <v>575</v>
-      </c>
-      <c r="F314" t="s">
-        <v>576</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11684,10 +11681,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
+        <v>576</v>
+      </c>
+      <c r="F315" t="s">
         <v>577</v>
-      </c>
-      <c r="F315" t="s">
-        <v>578</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11713,10 +11710,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
+        <v>578</v>
+      </c>
+      <c r="F316" t="s">
         <v>579</v>
-      </c>
-      <c r="F316" t="s">
-        <v>580</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11742,10 +11739,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
+        <v>580</v>
+      </c>
+      <c r="F317" t="s">
         <v>581</v>
-      </c>
-      <c r="F317" t="s">
-        <v>582</v>
       </c>
       <c r="G317" t="n">
         <v>6</v>
@@ -11771,10 +11768,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
+        <v>582</v>
+      </c>
+      <c r="F318" t="s">
         <v>583</v>
-      </c>
-      <c r="F318" t="s">
-        <v>584</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11800,10 +11797,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
+        <v>584</v>
+      </c>
+      <c r="F319" t="s">
         <v>585</v>
-      </c>
-      <c r="F319" t="s">
-        <v>586</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11829,10 +11826,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
+        <v>586</v>
+      </c>
+      <c r="F320" t="s">
         <v>587</v>
-      </c>
-      <c r="F320" t="s">
-        <v>588</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11858,10 +11855,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
+        <v>588</v>
+      </c>
+      <c r="F321" t="s">
         <v>589</v>
-      </c>
-      <c r="F321" t="s">
-        <v>590</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11887,10 +11884,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
+        <v>590</v>
+      </c>
+      <c r="F322" t="s">
         <v>591</v>
-      </c>
-      <c r="F322" t="s">
-        <v>592</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11916,10 +11913,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
+        <v>592</v>
+      </c>
+      <c r="F323" t="s">
         <v>593</v>
-      </c>
-      <c r="F323" t="s">
-        <v>594</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11945,10 +11942,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
+        <v>594</v>
+      </c>
+      <c r="F324" t="s">
         <v>595</v>
-      </c>
-      <c r="F324" t="s">
-        <v>596</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11974,10 +11971,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
+        <v>596</v>
+      </c>
+      <c r="F325" t="s">
         <v>597</v>
-      </c>
-      <c r="F325" t="s">
-        <v>598</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12003,10 +12000,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
+        <v>598</v>
+      </c>
+      <c r="F326" t="s">
         <v>599</v>
-      </c>
-      <c r="F326" t="s">
-        <v>600</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12032,10 +12029,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
+        <v>600</v>
+      </c>
+      <c r="F327" t="s">
         <v>601</v>
-      </c>
-      <c r="F327" t="s">
-        <v>602</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12061,10 +12058,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
+        <v>602</v>
+      </c>
+      <c r="F328" t="s">
         <v>603</v>
-      </c>
-      <c r="F328" t="s">
-        <v>604</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12090,10 +12087,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
+        <v>604</v>
+      </c>
+      <c r="F329" t="s">
         <v>605</v>
-      </c>
-      <c r="F329" t="s">
-        <v>606</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12119,10 +12116,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
+        <v>606</v>
+      </c>
+      <c r="F330" t="s">
         <v>607</v>
-      </c>
-      <c r="F330" t="s">
-        <v>608</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12148,10 +12145,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
+        <v>608</v>
+      </c>
+      <c r="F331" t="s">
         <v>609</v>
-      </c>
-      <c r="F331" t="s">
-        <v>610</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12177,10 +12174,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
+        <v>610</v>
+      </c>
+      <c r="F332" t="s">
         <v>611</v>
-      </c>
-      <c r="F332" t="s">
-        <v>612</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12206,10 +12203,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
+        <v>612</v>
+      </c>
+      <c r="F333" t="s">
         <v>613</v>
-      </c>
-      <c r="F333" t="s">
-        <v>614</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12235,10 +12232,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
+        <v>614</v>
+      </c>
+      <c r="F334" t="s">
         <v>615</v>
-      </c>
-      <c r="F334" t="s">
-        <v>616</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12264,10 +12261,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
+        <v>616</v>
+      </c>
+      <c r="F335" t="s">
         <v>617</v>
-      </c>
-      <c r="F335" t="s">
-        <v>618</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12293,10 +12290,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
+        <v>618</v>
+      </c>
+      <c r="F336" t="s">
         <v>619</v>
-      </c>
-      <c r="F336" t="s">
-        <v>620</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12322,10 +12319,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
+        <v>620</v>
+      </c>
+      <c r="F337" t="s">
         <v>621</v>
-      </c>
-      <c r="F337" t="s">
-        <v>622</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12351,10 +12348,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
+        <v>622</v>
+      </c>
+      <c r="F338" t="s">
         <v>623</v>
-      </c>
-      <c r="F338" t="s">
-        <v>624</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12380,10 +12377,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
+        <v>624</v>
+      </c>
+      <c r="F339" t="s">
         <v>625</v>
-      </c>
-      <c r="F339" t="s">
-        <v>626</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12409,10 +12406,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
+        <v>626</v>
+      </c>
+      <c r="F340" t="s">
         <v>627</v>
-      </c>
-      <c r="F340" t="s">
-        <v>628</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12438,10 +12435,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
+        <v>628</v>
+      </c>
+      <c r="F341" t="s">
         <v>629</v>
-      </c>
-      <c r="F341" t="s">
-        <v>630</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12467,10 +12464,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
+        <v>630</v>
+      </c>
+      <c r="F342" t="s">
         <v>631</v>
-      </c>
-      <c r="F342" t="s">
-        <v>632</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12496,10 +12493,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
+        <v>632</v>
+      </c>
+      <c r="F343" t="s">
         <v>633</v>
-      </c>
-      <c r="F343" t="s">
-        <v>634</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12525,10 +12522,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
+        <v>634</v>
+      </c>
+      <c r="F344" t="s">
         <v>635</v>
-      </c>
-      <c r="F344" t="s">
-        <v>636</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12554,10 +12551,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
+        <v>636</v>
+      </c>
+      <c r="F345" t="s">
         <v>637</v>
-      </c>
-      <c r="F345" t="s">
-        <v>638</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12583,10 +12580,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
+        <v>638</v>
+      </c>
+      <c r="F346" t="s">
         <v>639</v>
-      </c>
-      <c r="F346" t="s">
-        <v>640</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12612,10 +12609,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
+        <v>640</v>
+      </c>
+      <c r="F347" t="s">
         <v>641</v>
-      </c>
-      <c r="F347" t="s">
-        <v>642</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12641,10 +12638,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
+        <v>642</v>
+      </c>
+      <c r="F348" t="s">
         <v>643</v>
-      </c>
-      <c r="F348" t="s">
-        <v>644</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12670,10 +12667,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
+        <v>644</v>
+      </c>
+      <c r="F349" t="s">
         <v>645</v>
-      </c>
-      <c r="F349" t="s">
-        <v>646</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12699,10 +12696,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
+        <v>646</v>
+      </c>
+      <c r="F350" t="s">
         <v>647</v>
-      </c>
-      <c r="F350" t="s">
-        <v>648</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12728,10 +12725,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
+        <v>648</v>
+      </c>
+      <c r="F351" t="s">
         <v>649</v>
-      </c>
-      <c r="F351" t="s">
-        <v>650</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12757,10 +12754,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
+        <v>650</v>
+      </c>
+      <c r="F352" t="s">
         <v>651</v>
-      </c>
-      <c r="F352" t="s">
-        <v>652</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12786,10 +12783,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
+        <v>652</v>
+      </c>
+      <c r="F353" t="s">
         <v>653</v>
-      </c>
-      <c r="F353" t="s">
-        <v>654</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12815,10 +12812,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
+        <v>654</v>
+      </c>
+      <c r="F354" t="s">
         <v>655</v>
-      </c>
-      <c r="F354" t="s">
-        <v>656</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12844,10 +12841,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
+        <v>656</v>
+      </c>
+      <c r="F355" t="s">
         <v>657</v>
-      </c>
-      <c r="F355" t="s">
-        <v>658</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12873,10 +12870,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
+        <v>658</v>
+      </c>
+      <c r="F356" t="s">
         <v>659</v>
-      </c>
-      <c r="F356" t="s">
-        <v>660</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12902,10 +12899,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
+        <v>660</v>
+      </c>
+      <c r="F357" t="s">
         <v>661</v>
-      </c>
-      <c r="F357" t="s">
-        <v>662</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12931,10 +12928,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
+        <v>662</v>
+      </c>
+      <c r="F358" t="s">
         <v>663</v>
-      </c>
-      <c r="F358" t="s">
-        <v>664</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12960,10 +12957,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
+        <v>664</v>
+      </c>
+      <c r="F359" t="s">
         <v>665</v>
-      </c>
-      <c r="F359" t="s">
-        <v>666</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -12989,10 +12986,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
+        <v>666</v>
+      </c>
+      <c r="F360" t="s">
         <v>667</v>
-      </c>
-      <c r="F360" t="s">
-        <v>668</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13018,10 +13015,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
+        <v>668</v>
+      </c>
+      <c r="F361" t="s">
         <v>669</v>
-      </c>
-      <c r="F361" t="s">
-        <v>670</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13047,10 +13044,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
+        <v>670</v>
+      </c>
+      <c r="F362" t="s">
         <v>671</v>
-      </c>
-      <c r="F362" t="s">
-        <v>672</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13076,10 +13073,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
+        <v>672</v>
+      </c>
+      <c r="F363" t="s">
         <v>673</v>
-      </c>
-      <c r="F363" t="s">
-        <v>674</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13105,10 +13102,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
+        <v>674</v>
+      </c>
+      <c r="F364" t="s">
         <v>675</v>
-      </c>
-      <c r="F364" t="s">
-        <v>676</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13134,10 +13131,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
+        <v>676</v>
+      </c>
+      <c r="F365" t="s">
         <v>677</v>
-      </c>
-      <c r="F365" t="s">
-        <v>678</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13163,10 +13160,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
+        <v>678</v>
+      </c>
+      <c r="F366" t="s">
         <v>679</v>
-      </c>
-      <c r="F366" t="s">
-        <v>680</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13192,10 +13189,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
+        <v>680</v>
+      </c>
+      <c r="F367" t="s">
         <v>681</v>
-      </c>
-      <c r="F367" t="s">
-        <v>682</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13221,10 +13218,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
+        <v>682</v>
+      </c>
+      <c r="F368" t="s">
         <v>683</v>
-      </c>
-      <c r="F368" t="s">
-        <v>684</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13250,10 +13247,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
+        <v>684</v>
+      </c>
+      <c r="F369" t="s">
         <v>685</v>
-      </c>
-      <c r="F369" t="s">
-        <v>686</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13308,10 +13305,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
+        <v>686</v>
+      </c>
+      <c r="F371" t="s">
         <v>687</v>
-      </c>
-      <c r="F371" t="s">
-        <v>688</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13337,10 +13334,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
+        <v>688</v>
+      </c>
+      <c r="F372" t="s">
         <v>689</v>
-      </c>
-      <c r="F372" t="s">
-        <v>690</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13366,10 +13363,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
+        <v>690</v>
+      </c>
+      <c r="F373" t="s">
         <v>691</v>
-      </c>
-      <c r="F373" t="s">
-        <v>692</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13395,10 +13392,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
+        <v>692</v>
+      </c>
+      <c r="F374" t="s">
         <v>693</v>
-      </c>
-      <c r="F374" t="s">
-        <v>694</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13424,10 +13421,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
+        <v>694</v>
+      </c>
+      <c r="F375" t="s">
         <v>695</v>
-      </c>
-      <c r="F375" t="s">
-        <v>696</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13453,10 +13450,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
+        <v>696</v>
+      </c>
+      <c r="F376" t="s">
         <v>697</v>
-      </c>
-      <c r="F376" t="s">
-        <v>698</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13482,10 +13479,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
+        <v>698</v>
+      </c>
+      <c r="F377" t="s">
         <v>699</v>
-      </c>
-      <c r="F377" t="s">
-        <v>700</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13511,10 +13508,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
+        <v>700</v>
+      </c>
+      <c r="F378" t="s">
         <v>701</v>
-      </c>
-      <c r="F378" t="s">
-        <v>702</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13540,10 +13537,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
+        <v>702</v>
+      </c>
+      <c r="F379" t="s">
         <v>703</v>
-      </c>
-      <c r="F379" t="s">
-        <v>704</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13569,10 +13566,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
+        <v>704</v>
+      </c>
+      <c r="F380" t="s">
         <v>705</v>
-      </c>
-      <c r="F380" t="s">
-        <v>706</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13598,10 +13595,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
+        <v>706</v>
+      </c>
+      <c r="F381" t="s">
         <v>707</v>
-      </c>
-      <c r="F381" t="s">
-        <v>708</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13627,10 +13624,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
+        <v>708</v>
+      </c>
+      <c r="F382" t="s">
         <v>709</v>
-      </c>
-      <c r="F382" t="s">
-        <v>710</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13656,10 +13653,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
+        <v>710</v>
+      </c>
+      <c r="F383" t="s">
         <v>711</v>
-      </c>
-      <c r="F383" t="s">
-        <v>712</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13685,10 +13682,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
+        <v>712</v>
+      </c>
+      <c r="F384" t="s">
         <v>713</v>
-      </c>
-      <c r="F384" t="s">
-        <v>714</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13714,10 +13711,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
+        <v>714</v>
+      </c>
+      <c r="F385" t="s">
         <v>715</v>
-      </c>
-      <c r="F385" t="s">
-        <v>716</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -13743,10 +13740,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
+        <v>716</v>
+      </c>
+      <c r="F386" t="s">
         <v>717</v>
-      </c>
-      <c r="F386" t="s">
-        <v>718</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -13772,10 +13769,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
+        <v>718</v>
+      </c>
+      <c r="F387" t="s">
         <v>719</v>
-      </c>
-      <c r="F387" t="s">
-        <v>720</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -13801,10 +13798,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
+        <v>720</v>
+      </c>
+      <c r="F388" t="s">
         <v>721</v>
-      </c>
-      <c r="F388" t="s">
-        <v>722</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -13830,10 +13827,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
+        <v>722</v>
+      </c>
+      <c r="F389" t="s">
         <v>723</v>
-      </c>
-      <c r="F389" t="s">
-        <v>724</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -13859,10 +13856,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
+        <v>724</v>
+      </c>
+      <c r="F390" t="s">
         <v>725</v>
-      </c>
-      <c r="F390" t="s">
-        <v>726</v>
       </c>
       <c r="G390" t="n">
         <v>3</v>
@@ -13888,10 +13885,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
+        <v>726</v>
+      </c>
+      <c r="F391" t="s">
         <v>727</v>
-      </c>
-      <c r="F391" t="s">
-        <v>728</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -13917,10 +13914,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
+        <v>728</v>
+      </c>
+      <c r="F392" t="s">
         <v>729</v>
-      </c>
-      <c r="F392" t="s">
-        <v>730</v>
       </c>
       <c r="G392" t="n">
         <v>6</v>
@@ -13946,10 +13943,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F393" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
